--- a/spliced/walkingToRunning/2023-03-24_10-01-42/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-01-42/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.366751213598507</v>
+        <v>-0.03355996282946583</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.883752259408463</v>
+        <v>-0.1584969647691545</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5377000983087165</v>
+        <v>-0.0141987274892259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.4980152645466445</v>
+        <v>2.232942344609228</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.9560822888931177</v>
+        <v>-2.220868759447247</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9776749544262071</v>
+        <v>-1.187766118819664</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.03355996282946583</v>
+        <v>1.551477467791645</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1584969647691545</v>
+        <v>0.9860338054088031</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0141987274892259</v>
+        <v>-2.580682175500044</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.232942344609228</v>
+        <v>-2.007183966429317</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.220868759447247</v>
+        <v>3.929720215175458</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.187766118819664</v>
+        <v>0.6425367645595088</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.551477467791645</v>
+        <v>-5.864261772321608</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9860338054088031</v>
+        <v>5.580999001212737</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.580682175500044</v>
+        <v>2.13303363693427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.007183966429317</v>
+        <v>-1.424133648783631</v>
       </c>
       <c r="B7" t="n">
-        <v>3.929720215175458</v>
+        <v>-2.927099547771023</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6425367645595088</v>
+        <v>1.214256319940471</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.864261772321608</v>
+        <v>7.334702552475461</v>
       </c>
       <c r="B8" t="n">
-        <v>5.580999001212737</v>
+        <v>-7.529888727650148</v>
       </c>
       <c r="C8" t="n">
-        <v>2.13303363693427</v>
+        <v>-2.842065592730211</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.424133648783631</v>
+        <v>4.214317862661773</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.927099547771023</v>
+        <v>-3.208229954198307</v>
       </c>
       <c r="C9" t="n">
-        <v>1.214256319940471</v>
+        <v>-4.081179956471704</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7.334702552475461</v>
+        <v>-2.042688489330464</v>
       </c>
       <c r="B10" t="n">
-        <v>-7.529888727650148</v>
+        <v>3.253492230213918</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.842065592730211</v>
+        <v>-1.052057455785544</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.214317862661773</v>
+        <v>-8.89284183371872</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.208229954198307</v>
+        <v>6.183227533139049</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.081179956471704</v>
+        <v>8.303981626996203</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.042688489330464</v>
+        <v>1.101257697395411</v>
       </c>
       <c r="B12" t="n">
-        <v>3.253492230213918</v>
+        <v>-8.100705602894388</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.052057455785544</v>
+        <v>4.845630360686418</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-8.89284183371872</v>
+        <v>6.093993388347799</v>
       </c>
       <c r="B13" t="n">
-        <v>6.183227533139049</v>
+        <v>-8.757804864682157</v>
       </c>
       <c r="C13" t="n">
-        <v>8.303981626996203</v>
+        <v>1.959031731445559</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.101257697395411</v>
+        <v>5.412965199962155</v>
       </c>
       <c r="B14" t="n">
-        <v>-8.100705602894388</v>
+        <v>-0.5916063237634659</v>
       </c>
       <c r="C14" t="n">
-        <v>4.845630360686418</v>
+        <v>-1.592202567165649</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.093993388347799</v>
+        <v>1.925117330521559</v>
       </c>
       <c r="B15" t="n">
-        <v>-8.757804864682157</v>
+        <v>2.407113150780237</v>
       </c>
       <c r="C15" t="n">
-        <v>1.959031731445559</v>
+        <v>-2.267917759485144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.412965199962155</v>
+        <v>-2.498231235498205</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.5916063237634659</v>
+        <v>2.901872266153379</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.592202567165649</v>
+        <v>1.981700023694026</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.925117330521559</v>
+        <v>-4.308581977157101</v>
       </c>
       <c r="B17" t="n">
-        <v>2.407113150780237</v>
+        <v>6.365314957517947</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.267917759485144</v>
+        <v>-0.1142475042283233</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-2.498231235498205</v>
+        <v>-1.724872384752597</v>
       </c>
       <c r="B18" t="n">
-        <v>2.901872266153379</v>
+        <v>9.335920878819055</v>
       </c>
       <c r="C18" t="n">
-        <v>1.981700023694026</v>
+        <v>-6.735600778034694</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-4.308581977157101</v>
+        <v>2.584916405055822</v>
       </c>
       <c r="B19" t="n">
-        <v>6.365314957517947</v>
+        <v>-0.09003212140948058</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1142475042283233</v>
+        <v>-6.952868482340953</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.724872384752597</v>
+        <v>3.838851762854538</v>
       </c>
       <c r="B20" t="n">
-        <v>9.335920878819055</v>
+        <v>-1.53637689981414</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.735600778034694</v>
+        <v>-4.963172649004442</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.584916405055822</v>
+        <v>1.802320775223111</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.09003212140948058</v>
+        <v>0.8488230512749766</v>
       </c>
       <c r="C21" t="n">
-        <v>-6.952868482340953</v>
+        <v>-0.6512930319176782</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-4.243776159812123</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1656510622604825</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.680505474161589</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-3.268159332482785</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6.903478548393394</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.484958121495333</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.061862719725376</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5.545756017014141</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.003967119299857</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5.571206705910729</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.27861049012367</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5144404683794082</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7.170254665872369</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.238433612429565</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.1954094016033365</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1.018974213866787</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.231977397610628</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.4505931842401376</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-9.593666403930271</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-3.09781322716174</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.724484086777074</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-4.399059822840986</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-10.81391397322185</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.643179933847163</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4.520313150394069</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-8.092394739944785</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.05753792109697597</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5.967537736300274</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-5.414584435291156</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.474100663795217</v>
       </c>
     </row>
   </sheetData>
